--- a/data/10mRecords/GroupC_Control.xlsx
+++ b/data/10mRecords/GroupC_Control.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\석사\석사4차\Masters_Thesis_atINHA\data\10mRecords\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7315185D-7798-4432-9BF1-9CCDFF6555B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D89BB9-6704-4279-952E-BC17C323180D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="demopraphic" sheetId="2" r:id="rId1"/>
-    <sheet name="Records" sheetId="1" r:id="rId2"/>
+    <sheet name="Records" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,18 +40,6 @@
   </si>
   <si>
     <t>Post2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Height(m)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weight(kg)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -464,186 +451,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAB829A-6163-4D76-BE32-433A1CB2CD05}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A2:A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>23</v>
-      </c>
-      <c r="C2">
-        <v>1.74</v>
-      </c>
-      <c r="D2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>24</v>
-      </c>
-      <c r="C4">
-        <v>1.7</v>
-      </c>
-      <c r="D4">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>22</v>
-      </c>
-      <c r="D9">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>1.57</v>
-      </c>
-      <c r="D10">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>1.75</v>
-      </c>
-      <c r="D11">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>26</v>
-      </c>
-      <c r="C12">
-        <v>1.84</v>
-      </c>
-      <c r="D12">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>21</v>
-      </c>
-      <c r="C13">
-        <v>1.7</v>
-      </c>
-      <c r="D13">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -669,7 +476,7 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" s="6">
         <v>1.8733</v>
@@ -683,7 +490,7 @@
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6">
         <v>2.35</v>
@@ -697,7 +504,7 @@
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6">
         <v>1.9133</v>
@@ -711,7 +518,7 @@
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6">
         <v>2.1932999999999998</v>
@@ -725,7 +532,7 @@
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="6">
         <v>1.9833000000000001</v>
@@ -739,7 +546,7 @@
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" s="6">
         <v>1.82</v>
@@ -753,7 +560,7 @@
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" s="6">
         <v>1.63</v>
@@ -767,7 +574,7 @@
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" s="6">
         <v>1.8432999999999999</v>
@@ -781,7 +588,7 @@
     </row>
     <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" s="6">
         <v>1.7733000000000001</v>
@@ -795,7 +602,7 @@
     </row>
     <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" s="6">
         <v>2.09</v>
@@ -809,7 +616,7 @@
     </row>
     <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12" s="6">
         <v>1.7733000000000001</v>
@@ -823,7 +630,7 @@
     </row>
     <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" s="6">
         <v>1.81</v>

--- a/data/10mRecords/GroupC_Control.xlsx
+++ b/data/10mRecords/GroupC_Control.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\석사\석사4차\Masters_Thesis_atINHA\data\10mRecords\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D89BB9-6704-4279-952E-BC17C323180D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214161BA-4BCF-41D7-A4C1-B700DBCC633E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24045" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="1" r:id="rId1"/>
@@ -150,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -158,13 +158,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -172,6 +201,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -452,196 +487,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="7">
         <v>1.8733</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>1.7932999999999999</v>
       </c>
       <c r="D2" s="6">
-        <v>1.8667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+        <v>1.8</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>2.35</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>2.2132999999999998</v>
       </c>
       <c r="D3" s="6">
         <v>2.1233</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>1.9133</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>1.8767</v>
       </c>
       <c r="D4" s="6">
         <v>1.83</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>2.1932999999999998</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>2.15</v>
       </c>
       <c r="D5" s="6">
         <v>2.0367000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>1.9833000000000001</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>1.8067</v>
       </c>
       <c r="D6" s="6">
         <v>1.8833</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="7">
         <v>1.82</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>1.83</v>
       </c>
       <c r="D7" s="6">
         <v>1.8967000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>1.63</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>1.6</v>
       </c>
       <c r="D8" s="6">
         <v>1.65</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="7">
         <v>1.8432999999999999</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>1.8</v>
       </c>
       <c r="D9" s="6">
         <v>1.8833</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="7">
         <v>1.7733000000000001</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>1.75</v>
       </c>
       <c r="D10" s="6">
         <v>1.68</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="7">
         <v>2.09</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <v>2.0299999999999998</v>
       </c>
       <c r="D11" s="6">
         <v>1.96</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="7">
         <v>1.7733000000000001</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>1.7883</v>
       </c>
       <c r="D12" s="6">
         <v>1.8049999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="7">
         <v>1.81</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>1.82</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="5">
+        <v>1.81</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>